--- a/simulations/function_requirements/ip_facilities_info.xlsx
+++ b/simulations/function_requirements/ip_facilities_info.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,27 +385,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Admissions</t>
+          <t>site_IP_factor</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Patient.Days</t>
+          <t>LOS_rate</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>site_IP_factor</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>arr_lambda</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>LOS_rate</t>
+          <t>mayo_scale_param</t>
         </is>
       </c>
     </row>
@@ -432,19 +422,13 @@
         </is>
       </c>
       <c r="F2">
-        <v>452</v>
+        <v>0.5485436893203883</v>
       </c>
       <c r="G2">
-        <v>4448</v>
+        <v>236.1769911504425</v>
       </c>
       <c r="H2">
-        <v>0.5485436893203883</v>
-      </c>
-      <c r="I2">
-        <v>0.05159817351598173</v>
-      </c>
-      <c r="J2">
-        <v>236.1769911504425</v>
+        <v>0.519290615210646</v>
       </c>
     </row>
     <row r="3">
@@ -470,19 +454,13 @@
         </is>
       </c>
       <c r="F3">
-        <v>1145</v>
+        <v>0.6576680068925904</v>
       </c>
       <c r="G3">
-        <v>11293</v>
+        <v>236.7091703056768</v>
       </c>
       <c r="H3">
-        <v>0.6576680068925904</v>
-      </c>
-      <c r="I3">
-        <v>0.1307077625570776</v>
-      </c>
-      <c r="J3">
-        <v>236.7091703056768</v>
+        <v>1.065373770927743</v>
       </c>
     </row>
     <row r="4">
@@ -508,19 +486,13 @@
         </is>
       </c>
       <c r="F4">
-        <v>452</v>
+        <v>0.5485436893203883</v>
       </c>
       <c r="G4">
-        <v>4448</v>
+        <v>236.1769911504425</v>
       </c>
       <c r="H4">
-        <v>0.5485436893203883</v>
-      </c>
-      <c r="I4">
-        <v>0.05159817351598173</v>
-      </c>
-      <c r="J4">
-        <v>236.1769911504425</v>
+        <v>0.4715638484582704</v>
       </c>
     </row>
     <row r="5">
@@ -546,19 +518,13 @@
         </is>
       </c>
       <c r="F5">
-        <v>310</v>
+        <v>0.1780585870189546</v>
       </c>
       <c r="G5">
-        <v>1706</v>
+        <v>132.0774193548387</v>
       </c>
       <c r="H5">
-        <v>0.1780585870189546</v>
-      </c>
-      <c r="I5">
-        <v>0.03538812785388128</v>
-      </c>
-      <c r="J5">
-        <v>132.0774193548387</v>
+        <v>1.909363028241947</v>
       </c>
     </row>
     <row r="6">
@@ -584,19 +550,13 @@
         </is>
       </c>
       <c r="F6">
-        <v>394</v>
+        <v>0.2263067202757036</v>
       </c>
       <c r="G6">
-        <v>3096</v>
+        <v>188.5888324873096</v>
       </c>
       <c r="H6">
-        <v>0.2263067202757036</v>
-      </c>
-      <c r="I6">
-        <v>0.04497716894977169</v>
-      </c>
-      <c r="J6">
-        <v>188.5888324873096</v>
+        <v>1.337214606271589</v>
       </c>
     </row>
     <row r="7">
@@ -622,19 +582,13 @@
         </is>
       </c>
       <c r="F7">
-        <v>370</v>
+        <v>0.2125215393452039</v>
       </c>
       <c r="G7">
-        <v>2878</v>
+        <v>186.6810810810811</v>
       </c>
       <c r="H7">
-        <v>0.2125215393452039</v>
-      </c>
-      <c r="I7">
-        <v>0.04223744292237443</v>
-      </c>
-      <c r="J7">
-        <v>186.6810810810811</v>
+        <v>1.350880013771752</v>
       </c>
     </row>
     <row r="8">
@@ -660,19 +614,13 @@
         </is>
       </c>
       <c r="F8">
-        <v>142</v>
+        <v>0.08156232050545663</v>
       </c>
       <c r="G8">
-        <v>1779</v>
+        <v>300.6760563380282</v>
       </c>
       <c r="H8">
-        <v>0.08156232050545663</v>
-      </c>
-      <c r="I8">
-        <v>0.01621004566210046</v>
-      </c>
-      <c r="J8">
-        <v>300.6760563380282</v>
+        <v>1.060390922508506</v>
       </c>
     </row>
     <row r="9">
@@ -698,19 +646,13 @@
         </is>
       </c>
       <c r="F9">
-        <v>349</v>
+        <v>0.4235436893203883</v>
       </c>
       <c r="G9">
-        <v>1683</v>
+        <v>115.7363896848138</v>
       </c>
       <c r="H9">
-        <v>0.4235436893203883</v>
-      </c>
-      <c r="I9">
-        <v>0.03984018264840183</v>
-      </c>
-      <c r="J9">
-        <v>115.7363896848138</v>
+        <v>0.9622948423352381</v>
       </c>
     </row>
     <row r="10">
@@ -736,19 +678,13 @@
         </is>
       </c>
       <c r="F10">
-        <v>349</v>
+        <v>0.4235436893203883</v>
       </c>
       <c r="G10">
-        <v>1683</v>
+        <v>115.7363896848138</v>
       </c>
       <c r="H10">
-        <v>0.4235436893203883</v>
-      </c>
-      <c r="I10">
-        <v>0.03984018264840183</v>
-      </c>
-      <c r="J10">
-        <v>115.7363896848138</v>
+        <v>1.059688274077943</v>
       </c>
     </row>
     <row r="11">
@@ -774,19 +710,13 @@
         </is>
       </c>
       <c r="F11">
-        <v>525</v>
+        <v>0.6371359223300971</v>
       </c>
       <c r="G11">
-        <v>3627</v>
+        <v>165.8057142857143</v>
       </c>
       <c r="H11">
-        <v>0.6371359223300971</v>
-      </c>
-      <c r="I11">
-        <v>0.05993150684931507</v>
-      </c>
-      <c r="J11">
-        <v>165.8057142857143</v>
+        <v>0.7396879870000931</v>
       </c>
     </row>
     <row r="12">
@@ -812,19 +742,13 @@
         </is>
       </c>
       <c r="F12">
-        <v>1025</v>
+        <v>0.5887421022400919</v>
       </c>
       <c r="G12">
-        <v>10499</v>
+        <v>245.830243902439</v>
       </c>
       <c r="H12">
-        <v>0.5887421022400919</v>
-      </c>
-      <c r="I12">
-        <v>0.1170091324200913</v>
-      </c>
-      <c r="J12">
-        <v>245.830243902439</v>
+        <v>1.025845060308441</v>
       </c>
     </row>
     <row r="13">
@@ -850,19 +774,13 @@
         </is>
       </c>
       <c r="F13">
-        <v>525</v>
+        <v>0.6371359223300971</v>
       </c>
       <c r="G13">
-        <v>3627</v>
+        <v>165.8057142857143</v>
       </c>
       <c r="H13">
-        <v>0.6371359223300971</v>
-      </c>
-      <c r="I13">
-        <v>0.05993150684931507</v>
-      </c>
-      <c r="J13">
-        <v>165.8057142857143</v>
+        <v>0.6717050214100692</v>
       </c>
     </row>
     <row r="14">
@@ -888,19 +806,13 @@
         </is>
       </c>
       <c r="F14">
-        <v>1025</v>
+        <v>0.5887421022400919</v>
       </c>
       <c r="G14">
-        <v>10499</v>
+        <v>245.830243902439</v>
       </c>
       <c r="H14">
-        <v>0.5887421022400919</v>
-      </c>
-      <c r="I14">
-        <v>0.1170091324200913</v>
-      </c>
-      <c r="J14">
-        <v>245.830243902439</v>
+        <v>1.296968817567601</v>
       </c>
     </row>
     <row r="15">
@@ -926,19 +838,13 @@
         </is>
       </c>
       <c r="F15">
-        <v>649</v>
+        <v>0.3727742676622631</v>
       </c>
       <c r="G15">
-        <v>7136</v>
+        <v>263.8890600924499</v>
       </c>
       <c r="H15">
-        <v>0.3727742676622631</v>
-      </c>
-      <c r="I15">
-        <v>0.07408675799086759</v>
-      </c>
-      <c r="J15">
-        <v>263.8890600924499</v>
+        <v>0.9556430315579857</v>
       </c>
     </row>
     <row r="16">
@@ -964,19 +870,13 @@
         </is>
       </c>
       <c r="F16">
-        <v>1456</v>
+        <v>0.8363009764503159</v>
       </c>
       <c r="G16">
-        <v>19457</v>
+        <v>320.7197802197802</v>
       </c>
       <c r="H16">
-        <v>0.8363009764503159</v>
-      </c>
-      <c r="I16">
-        <v>0.1662100456621005</v>
-      </c>
-      <c r="J16">
-        <v>320.7197802197802</v>
+        <v>0.7863055443880697</v>
       </c>
     </row>
     <row r="17">
@@ -1002,19 +902,13 @@
         </is>
       </c>
       <c r="F17">
-        <v>417</v>
+        <v>0.1623199688594784</v>
       </c>
       <c r="G17">
-        <v>2872</v>
+        <v>165.294964028777</v>
       </c>
       <c r="H17">
-        <v>0.1623199688594784</v>
-      </c>
-      <c r="I17">
-        <v>0.0476027397260274</v>
-      </c>
-      <c r="J17">
-        <v>165.294964028777</v>
+        <v>0.7419735728413409</v>
       </c>
     </row>
     <row r="18">
@@ -1040,19 +934,13 @@
         </is>
       </c>
       <c r="F18">
-        <v>417</v>
+        <v>0.1623199688594784</v>
       </c>
       <c r="G18">
-        <v>2872</v>
+        <v>165.294964028777</v>
       </c>
       <c r="H18">
-        <v>0.1623199688594784</v>
-      </c>
-      <c r="I18">
-        <v>0.0476027397260274</v>
-      </c>
-      <c r="J18">
-        <v>165.294964028777</v>
+        <v>1.525658950733868</v>
       </c>
     </row>
     <row r="19">
@@ -1078,19 +966,13 @@
         </is>
       </c>
       <c r="F19">
-        <v>417</v>
+        <v>0.1623199688594784</v>
       </c>
       <c r="G19">
-        <v>2872</v>
+        <v>165.294964028777</v>
       </c>
       <c r="H19">
-        <v>0.1623199688594784</v>
-      </c>
-      <c r="I19">
-        <v>0.0476027397260274</v>
-      </c>
-      <c r="J19">
-        <v>165.294964028777</v>
+        <v>1.928880063768875</v>
       </c>
     </row>
     <row r="20">
@@ -1116,19 +998,13 @@
         </is>
       </c>
       <c r="F20">
-        <v>272</v>
+        <v>0.1058777734527053</v>
       </c>
       <c r="G20">
-        <v>1846</v>
+        <v>162.8823529411765</v>
       </c>
       <c r="H20">
-        <v>0.1058777734527053</v>
-      </c>
-      <c r="I20">
-        <v>0.03105022831050228</v>
-      </c>
-      <c r="J20">
-        <v>162.8823529411765</v>
+        <v>0.7529636748150647</v>
       </c>
     </row>
     <row r="21">
@@ -1154,19 +1030,13 @@
         </is>
       </c>
       <c r="F21">
-        <v>272</v>
+        <v>0.1058777734527053</v>
       </c>
       <c r="G21">
-        <v>1846</v>
+        <v>162.8823529411765</v>
       </c>
       <c r="H21">
-        <v>0.1058777734527053</v>
-      </c>
-      <c r="I21">
-        <v>0.03105022831050228</v>
-      </c>
-      <c r="J21">
-        <v>162.8823529411765</v>
+        <v>1.548256989342549</v>
       </c>
     </row>
     <row r="22">
@@ -1192,19 +1062,13 @@
         </is>
       </c>
       <c r="F22">
-        <v>272</v>
+        <v>0.1058777734527053</v>
       </c>
       <c r="G22">
-        <v>1846</v>
+        <v>162.8823529411765</v>
       </c>
       <c r="H22">
-        <v>0.1058777734527053</v>
-      </c>
-      <c r="I22">
-        <v>0.03105022831050228</v>
-      </c>
-      <c r="J22">
-        <v>162.8823529411765</v>
+        <v>1.957450607750278</v>
       </c>
     </row>
     <row r="23">
@@ -1230,19 +1094,13 @@
         </is>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>0.01263641585295807</v>
       </c>
       <c r="G23">
-        <v>261</v>
+        <v>284.7272727272727</v>
       </c>
       <c r="H23">
-        <v>0.01263641585295807</v>
-      </c>
-      <c r="I23">
-        <v>0.002511415525114155</v>
-      </c>
-      <c r="J23">
-        <v>284.7272727272727</v>
+        <v>1.119787920920023</v>
       </c>
     </row>
     <row r="24">
@@ -1268,19 +1126,13 @@
         </is>
       </c>
       <c r="F24">
-        <v>439</v>
+        <v>0.2521539345203906</v>
       </c>
       <c r="G24">
-        <v>3619</v>
+        <v>197.8496583143508</v>
       </c>
       <c r="H24">
-        <v>0.2521539345203906</v>
-      </c>
-      <c r="I24">
-        <v>0.05011415525114155</v>
-      </c>
-      <c r="J24">
-        <v>197.8496583143508</v>
+        <v>1.274623082649238</v>
       </c>
     </row>
     <row r="25">
@@ -1306,19 +1158,13 @@
         </is>
       </c>
       <c r="F25">
-        <v>779</v>
+        <v>0.9453883495145631</v>
       </c>
       <c r="G25">
-        <v>8265</v>
+        <v>254.6341463414634</v>
       </c>
       <c r="H25">
-        <v>0.9453883495145631</v>
-      </c>
-      <c r="I25">
-        <v>0.08892694063926941</v>
-      </c>
-      <c r="J25">
-        <v>254.6341463414634</v>
+        <v>0.4816498368158636</v>
       </c>
     </row>
     <row r="26">
@@ -1344,19 +1190,13 @@
         </is>
       </c>
       <c r="F26">
-        <v>2170</v>
+        <v>1.246410109132682</v>
       </c>
       <c r="G26">
-        <v>21803</v>
+        <v>241.1391705069124</v>
       </c>
       <c r="H26">
-        <v>1.246410109132682</v>
-      </c>
-      <c r="I26">
-        <v>0.2477168949771689</v>
-      </c>
-      <c r="J26">
-        <v>241.1391705069124</v>
+        <v>1.04580164579486</v>
       </c>
     </row>
     <row r="27">
@@ -1382,19 +1222,13 @@
         </is>
       </c>
       <c r="F27">
-        <v>779</v>
+        <v>0.9453883495145631</v>
       </c>
       <c r="G27">
-        <v>8265</v>
+        <v>254.6341463414634</v>
       </c>
       <c r="H27">
-        <v>0.9453883495145631</v>
-      </c>
-      <c r="I27">
-        <v>0.08892694063926941</v>
-      </c>
-      <c r="J27">
-        <v>254.6341463414634</v>
+        <v>0.4373825445816187</v>
       </c>
     </row>
     <row r="28">
@@ -1420,19 +1254,13 @@
         </is>
       </c>
       <c r="F28">
-        <v>2170</v>
+        <v>1.246410109132682</v>
       </c>
       <c r="G28">
-        <v>21803</v>
+        <v>241.1391705069124</v>
       </c>
       <c r="H28">
-        <v>1.246410109132682</v>
-      </c>
-      <c r="I28">
-        <v>0.2477168949771689</v>
-      </c>
-      <c r="J28">
-        <v>241.1391705069124</v>
+        <v>1.322199790628215</v>
       </c>
     </row>
     <row r="29">
@@ -1458,19 +1286,13 @@
         </is>
       </c>
       <c r="F29">
-        <v>448</v>
+        <v>0.257323377369328</v>
       </c>
       <c r="G29">
-        <v>2793</v>
+        <v>149.625</v>
       </c>
       <c r="H29">
-        <v>0.257323377369328</v>
-      </c>
-      <c r="I29">
-        <v>0.05114155251141553</v>
-      </c>
-      <c r="J29">
-        <v>149.625</v>
+        <v>1.685438538892139</v>
       </c>
     </row>
     <row r="30">
@@ -1496,19 +1318,13 @@
         </is>
       </c>
       <c r="F30">
-        <v>290</v>
+        <v>0.1665709362435382</v>
       </c>
       <c r="G30">
-        <v>3142</v>
+        <v>260.0275862068966</v>
       </c>
       <c r="H30">
-        <v>0.1665709362435382</v>
-      </c>
-      <c r="I30">
-        <v>0.03310502283105023</v>
-      </c>
-      <c r="J30">
-        <v>260.0275862068966</v>
+        <v>0.9698345666335605</v>
       </c>
     </row>
     <row r="31">
@@ -1534,19 +1350,13 @@
         </is>
       </c>
       <c r="F31">
-        <v>824</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>4286</v>
+        <v>124.8349514563107</v>
       </c>
       <c r="H31">
         <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0.09406392694063927</v>
-      </c>
-      <c r="J31">
-        <v>124.8349514563107</v>
       </c>
     </row>
     <row r="32">
@@ -1572,19 +1382,13 @@
         </is>
       </c>
       <c r="F32">
-        <v>1741</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>18948</v>
+        <v>261.2016082711086</v>
       </c>
       <c r="H32">
         <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0.1987442922374429</v>
-      </c>
-      <c r="J32">
-        <v>261.2016082711086</v>
       </c>
     </row>
     <row r="33">
@@ -1610,19 +1414,13 @@
         </is>
       </c>
       <c r="F33">
-        <v>824</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>4286</v>
+        <v>124.8349514563107</v>
       </c>
       <c r="H33">
         <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0.09406392694063927</v>
-      </c>
-      <c r="J33">
-        <v>124.8349514563107</v>
       </c>
     </row>
     <row r="34">
@@ -1648,19 +1446,13 @@
         </is>
       </c>
       <c r="F34">
-        <v>1741</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>18948</v>
+        <v>261.2016082711086</v>
       </c>
       <c r="H34">
         <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0.1987442922374429</v>
-      </c>
-      <c r="J34">
-        <v>261.2016082711086</v>
       </c>
     </row>
     <row r="35">
@@ -1686,19 +1478,13 @@
         </is>
       </c>
       <c r="F35">
-        <v>46</v>
+        <v>0.02642159678345778</v>
       </c>
       <c r="G35">
-        <v>1084</v>
+        <v>565.5652173913044</v>
       </c>
       <c r="H35">
-        <v>0.02642159678345778</v>
-      </c>
-      <c r="I35">
-        <v>0.005251141552511416</v>
-      </c>
-      <c r="J35">
-        <v>565.5652173913044</v>
+        <v>0.5637442879304679</v>
       </c>
     </row>
     <row r="36">
@@ -1724,19 +1510,13 @@
         </is>
       </c>
       <c r="F36">
-        <v>1355</v>
+        <v>0.7782883400344629</v>
       </c>
       <c r="G36">
-        <v>11507</v>
+        <v>203.8140221402214</v>
       </c>
       <c r="H36">
-        <v>0.7782883400344629</v>
-      </c>
-      <c r="I36">
-        <v>0.1546803652968037</v>
-      </c>
-      <c r="J36">
-        <v>203.8140221402214</v>
+        <v>1.237322823687946</v>
       </c>
     </row>
     <row r="37">
@@ -1762,19 +1542,13 @@
         </is>
       </c>
       <c r="F37">
-        <v>1355</v>
+        <v>0.7782883400344629</v>
       </c>
       <c r="G37">
-        <v>11507</v>
+        <v>203.8140221402214</v>
       </c>
       <c r="H37">
-        <v>0.7782883400344629</v>
-      </c>
-      <c r="I37">
-        <v>0.1546803652968037</v>
-      </c>
-      <c r="J37">
-        <v>203.8140221402214</v>
+        <v>1.564338691756681</v>
       </c>
     </row>
     <row r="38">
@@ -1800,19 +1574,13 @@
         </is>
       </c>
       <c r="F38">
-        <v>158</v>
+        <v>0.09075244112578977</v>
       </c>
       <c r="G38">
-        <v>2755</v>
+        <v>418.4810126582278</v>
       </c>
       <c r="H38">
-        <v>0.09075244112578977</v>
-      </c>
-      <c r="I38">
-        <v>0.0180365296803653</v>
-      </c>
-      <c r="J38">
-        <v>418.4810126582278</v>
+        <v>0.761884413180992</v>
       </c>
     </row>
     <row r="39">
@@ -1838,19 +1606,13 @@
         </is>
       </c>
       <c r="F39">
-        <v>298</v>
+        <v>0.1159984429739198</v>
       </c>
       <c r="G39">
-        <v>2502</v>
+        <v>201.503355704698</v>
       </c>
       <c r="H39">
-        <v>0.1711659965537048</v>
-      </c>
-      <c r="I39">
-        <v>0.03401826484018265</v>
-      </c>
-      <c r="J39">
-        <v>201.503355704698</v>
+        <v>0.6086474074052016</v>
       </c>
     </row>
     <row r="40">
@@ -1876,19 +1638,13 @@
         </is>
       </c>
       <c r="F40">
-        <v>298</v>
+        <v>0.1159984429739198</v>
       </c>
       <c r="G40">
-        <v>2502</v>
+        <v>201.503355704698</v>
       </c>
       <c r="H40">
-        <v>0.1711659965537048</v>
-      </c>
-      <c r="I40">
-        <v>0.03401826484018265</v>
-      </c>
-      <c r="J40">
-        <v>201.503355704698</v>
+        <v>1.251511373097479</v>
       </c>
     </row>
     <row r="41">
@@ -1914,19 +1670,13 @@
         </is>
       </c>
       <c r="F41">
-        <v>367</v>
+        <v>0.2107983917288914</v>
       </c>
       <c r="G41">
-        <v>5094</v>
+        <v>333.1226158038147</v>
       </c>
       <c r="H41">
-        <v>0.2107983917288914</v>
-      </c>
-      <c r="I41">
-        <v>0.04189497716894977</v>
-      </c>
-      <c r="J41">
-        <v>333.1226158038147</v>
+        <v>0.7570297824818187</v>
       </c>
     </row>
     <row r="42">
@@ -1952,19 +1702,13 @@
         </is>
       </c>
       <c r="F42">
-        <v>301</v>
+        <v>0.1728891441700172</v>
       </c>
       <c r="G42">
-        <v>2730</v>
+        <v>217.6744186046512</v>
       </c>
       <c r="H42">
-        <v>0.1728891441700172</v>
-      </c>
-      <c r="I42">
-        <v>0.03436073059360731</v>
-      </c>
-      <c r="J42">
-        <v>217.6744186046512</v>
+        <v>1.158536418740883</v>
       </c>
     </row>
     <row r="43">
@@ -1990,19 +1734,13 @@
         </is>
       </c>
       <c r="F43">
-        <v>2826</v>
+        <v>3.429611650485437</v>
       </c>
       <c r="G43">
-        <v>21735</v>
+        <v>184.5859872611465</v>
       </c>
       <c r="H43">
-        <v>3.429611650485437</v>
-      </c>
-      <c r="I43">
-        <v>0.3226027397260274</v>
-      </c>
-      <c r="J43">
-        <v>184.5859872611465</v>
+        <v>0.6644301490751785</v>
       </c>
     </row>
     <row r="44">
@@ -2028,19 +1766,13 @@
         </is>
       </c>
       <c r="F44">
-        <v>2826</v>
+        <v>3.429611650485437</v>
       </c>
       <c r="G44">
-        <v>21735</v>
+        <v>184.5859872611465</v>
       </c>
       <c r="H44">
-        <v>3.429611650485437</v>
-      </c>
-      <c r="I44">
-        <v>0.3226027397260274</v>
-      </c>
-      <c r="J44">
-        <v>184.5859872611465</v>
+        <v>0.6033639525769156</v>
       </c>
     </row>
     <row r="45">
@@ -2066,19 +1798,13 @@
         </is>
       </c>
       <c r="F45">
-        <v>36</v>
+        <v>0.02067777139574957</v>
       </c>
       <c r="G45">
-        <v>858</v>
+        <v>572</v>
       </c>
       <c r="H45">
-        <v>0.02067777139574957</v>
-      </c>
-      <c r="I45">
-        <v>0.00410958904109589</v>
-      </c>
-      <c r="J45">
-        <v>572</v>
+        <v>0.5574023789449322</v>
       </c>
     </row>
     <row r="46">
@@ -2104,19 +1830,13 @@
         </is>
       </c>
       <c r="F46">
-        <v>1978</v>
+        <v>1.136128661688685</v>
       </c>
       <c r="G46">
-        <v>22035</v>
+        <v>267.360970677452</v>
       </c>
       <c r="H46">
-        <v>1.136128661688685</v>
-      </c>
-      <c r="I46">
-        <v>0.2257990867579909</v>
-      </c>
-      <c r="J46">
-        <v>267.360970677452</v>
+        <v>0.9432331904793028</v>
       </c>
     </row>
     <row r="47">
@@ -2142,19 +1862,13 @@
         </is>
       </c>
       <c r="F47">
-        <v>13</v>
+        <v>0.007466973004020678</v>
       </c>
       <c r="G47">
-        <v>89</v>
+        <v>164.3076923076923</v>
       </c>
       <c r="H47">
-        <v>0.007466973004020678</v>
-      </c>
-      <c r="I47">
-        <v>0.001484018264840183</v>
-      </c>
-      <c r="J47">
-        <v>164.3076923076923</v>
+        <v>1.940470079510541</v>
       </c>
     </row>
     <row r="48">
@@ -2180,19 +1894,13 @@
         </is>
       </c>
       <c r="F48">
-        <v>1284</v>
+        <v>0.7375071797817346</v>
       </c>
       <c r="G48">
-        <v>14052</v>
+        <v>262.6542056074766</v>
       </c>
       <c r="H48">
-        <v>0.7375071797817346</v>
-      </c>
-      <c r="I48">
-        <v>0.1465753424657534</v>
-      </c>
-      <c r="J48">
-        <v>262.6542056074766</v>
+        <v>0.9601359353773764</v>
       </c>
     </row>
     <row r="49">
@@ -2218,19 +1926,13 @@
         </is>
       </c>
       <c r="F49">
-        <v>1284</v>
+        <v>0.7375071797817346</v>
       </c>
       <c r="G49">
-        <v>14052</v>
+        <v>262.6542056074766</v>
       </c>
       <c r="H49">
-        <v>0.7375071797817346</v>
-      </c>
-      <c r="I49">
-        <v>0.1465753424657534</v>
-      </c>
-      <c r="J49">
-        <v>262.6542056074766</v>
+        <v>1.213893225197325</v>
       </c>
     </row>
     <row r="50">
@@ -2256,19 +1958,13 @@
         </is>
       </c>
       <c r="F50">
-        <v>227</v>
+        <v>0.08836123005060335</v>
       </c>
       <c r="G50">
-        <v>1372</v>
+        <v>145.057268722467</v>
       </c>
       <c r="H50">
-        <v>0.08836123005060335</v>
-      </c>
-      <c r="I50">
-        <v>0.02591324200913242</v>
-      </c>
-      <c r="J50">
-        <v>145.057268722467</v>
+        <v>0.8454901716629176</v>
       </c>
     </row>
     <row r="51">
@@ -2294,19 +1990,13 @@
         </is>
       </c>
       <c r="F51">
-        <v>227</v>
+        <v>0.08836123005060335</v>
       </c>
       <c r="G51">
-        <v>1372</v>
+        <v>145.057268722467</v>
       </c>
       <c r="H51">
-        <v>0.08836123005060335</v>
-      </c>
-      <c r="I51">
-        <v>0.02591324200913242</v>
-      </c>
-      <c r="J51">
-        <v>145.057268722467</v>
+        <v>1.738511579617776</v>
       </c>
     </row>
     <row r="52">
@@ -2332,19 +2022,13 @@
         </is>
       </c>
       <c r="F52">
-        <v>227</v>
+        <v>0.08836123005060335</v>
       </c>
       <c r="G52">
-        <v>1372</v>
+        <v>145.057268722467</v>
       </c>
       <c r="H52">
-        <v>0.08836123005060335</v>
-      </c>
-      <c r="I52">
-        <v>0.02591324200913242</v>
-      </c>
-      <c r="J52">
-        <v>145.057268722467</v>
+        <v>2.197988170910039</v>
       </c>
     </row>
     <row r="53">
@@ -2370,19 +2054,13 @@
         </is>
       </c>
       <c r="F53">
-        <v>196</v>
+        <v>0.3386531724406384</v>
       </c>
       <c r="G53">
-        <v>1231</v>
+        <v>180</v>
       </c>
       <c r="H53">
-        <v>0.2378640776699029</v>
-      </c>
-      <c r="I53">
-        <v>0.02237442922374429</v>
-      </c>
-      <c r="J53">
-        <v>150.734693877551</v>
+        <v>0.6813583057395143</v>
       </c>
     </row>
     <row r="54">
@@ -2408,19 +2086,13 @@
         </is>
       </c>
       <c r="F54">
-        <v>674</v>
+        <v>0.3386531724406384</v>
       </c>
       <c r="G54">
-        <v>5294</v>
+        <v>180</v>
       </c>
       <c r="H54">
-        <v>0.3871338311315336</v>
-      </c>
-      <c r="I54">
-        <v>0.07694063926940639</v>
-      </c>
-      <c r="J54">
-        <v>188.5103857566766</v>
+        <v>1.401020785454091</v>
       </c>
     </row>
     <row r="55">
@@ -2446,19 +2118,13 @@
         </is>
       </c>
       <c r="F55">
-        <v>358</v>
+        <v>0.2056289488799541</v>
       </c>
       <c r="G55">
-        <v>1859</v>
+        <v>124.6256983240224</v>
       </c>
       <c r="H55">
-        <v>0.2056289488799541</v>
-      </c>
-      <c r="I55">
-        <v>0.0408675799086758</v>
-      </c>
-      <c r="J55">
-        <v>124.6256983240224</v>
+        <v>2.023529214063601</v>
       </c>
     </row>
     <row r="56">
@@ -2484,19 +2150,13 @@
         </is>
       </c>
       <c r="F56">
-        <v>514</v>
+        <v>0.2952326249282022</v>
       </c>
       <c r="G56">
-        <v>5741</v>
+        <v>268.0622568093385</v>
       </c>
       <c r="H56">
-        <v>0.2952326249282022</v>
-      </c>
-      <c r="I56">
-        <v>0.05867579908675799</v>
-      </c>
-      <c r="J56">
-        <v>268.0622568093385</v>
+        <v>0.9407655683549068</v>
       </c>
     </row>
     <row r="57">
@@ -2522,19 +2182,13 @@
         </is>
       </c>
       <c r="F57">
-        <v>247</v>
+        <v>0.299757281553398</v>
       </c>
       <c r="G57">
-        <v>2662</v>
+        <v>258.6558704453441</v>
       </c>
       <c r="H57">
-        <v>0.299757281553398</v>
-      </c>
-      <c r="I57">
-        <v>0.02819634703196347</v>
-      </c>
-      <c r="J57">
-        <v>258.6558704453441</v>
+        <v>0.4741608795576447</v>
       </c>
     </row>
     <row r="58">
@@ -2560,19 +2214,13 @@
         </is>
       </c>
       <c r="F58">
-        <v>651</v>
+        <v>0.3739230327398047</v>
       </c>
       <c r="G58">
-        <v>6512</v>
+        <v>240.073732718894</v>
       </c>
       <c r="H58">
-        <v>0.3739230327398047</v>
-      </c>
-      <c r="I58">
-        <v>0.07431506849315068</v>
-      </c>
-      <c r="J58">
-        <v>240.073732718894</v>
+        <v>1.050442872386302</v>
       </c>
     </row>
     <row r="59">
@@ -2598,19 +2246,13 @@
         </is>
       </c>
       <c r="F59">
-        <v>651</v>
+        <v>0.3739230327398047</v>
       </c>
       <c r="G59">
-        <v>6512</v>
+        <v>240.073732718894</v>
       </c>
       <c r="H59">
-        <v>0.3739230327398047</v>
-      </c>
-      <c r="I59">
-        <v>0.07431506849315068</v>
-      </c>
-      <c r="J59">
-        <v>240.073732718894</v>
+        <v>1.328067661320653</v>
       </c>
     </row>
     <row r="60">
@@ -2636,19 +2278,13 @@
         </is>
       </c>
       <c r="F60">
-        <v>18</v>
+        <v>0.01033888569787478</v>
       </c>
       <c r="G60">
-        <v>127</v>
+        <v>169.3333333333333</v>
       </c>
       <c r="H60">
-        <v>0.01033888569787478</v>
-      </c>
-      <c r="I60">
-        <v>0.002054794520547945</v>
-      </c>
-      <c r="J60">
-        <v>169.3333333333333</v>
+        <v>1.48927406327797</v>
       </c>
     </row>
   </sheetData>

--- a/simulations/function_requirements/ip_facilities_info.xlsx
+++ b/simulations/function_requirements/ip_facilities_info.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,7 +428,7 @@
         <v>236.1769911504425</v>
       </c>
       <c r="H2">
-        <v>0.519290615210646</v>
+        <v>0.5275666176396232</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>236.7091703056768</v>
       </c>
       <c r="H3">
-        <v>1.065373770927743</v>
+        <v>1.111453171863835</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         <v>236.1769911504425</v>
       </c>
       <c r="H4">
-        <v>0.4715638484582704</v>
+        <v>0.4893562365297635</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         <v>132.0774193548387</v>
       </c>
       <c r="H5">
-        <v>1.909363028241947</v>
+        <v>1.991946537346263</v>
       </c>
     </row>
     <row r="6">
@@ -556,7 +556,7 @@
         <v>188.5888324873096</v>
       </c>
       <c r="H6">
-        <v>1.337214606271589</v>
+        <v>1.39505162991666</v>
       </c>
     </row>
     <row r="7">
@@ -588,7 +588,7 @@
         <v>186.6810810810811</v>
       </c>
       <c r="H7">
-        <v>1.350880013771752</v>
+        <v>1.409308091756941</v>
       </c>
     </row>
     <row r="8">
@@ -620,7 +620,7 @@
         <v>300.6760563380282</v>
       </c>
       <c r="H8">
-        <v>1.060390922508506</v>
+        <v>1.137786789283417</v>
       </c>
     </row>
     <row r="9">
@@ -652,7 +652,7 @@
         <v>115.7363896848138</v>
       </c>
       <c r="H9">
-        <v>0.9622948423352381</v>
+        <v>0.9986028064211235</v>
       </c>
     </row>
     <row r="10">
@@ -684,7 +684,7 @@
         <v>115.7363896848138</v>
       </c>
       <c r="H10">
-        <v>1.059688274077943</v>
+        <v>1.076576664650283</v>
       </c>
     </row>
     <row r="11">
@@ -716,7 +716,7 @@
         <v>165.8057142857143</v>
       </c>
       <c r="H11">
-        <v>0.7396879870000931</v>
+        <v>0.7514764911590116</v>
       </c>
     </row>
     <row r="12">
@@ -748,7 +748,7 @@
         <v>245.830243902439</v>
       </c>
       <c r="H12">
-        <v>1.025845060308441</v>
+        <v>1.070214770847774</v>
       </c>
     </row>
     <row r="13">
@@ -780,7 +780,7 @@
         <v>165.8057142857143</v>
       </c>
       <c r="H13">
-        <v>0.6717050214100692</v>
+        <v>0.6970488565016943</v>
       </c>
     </row>
     <row r="14">
@@ -812,7 +812,7 @@
         <v>245.830243902439</v>
       </c>
       <c r="H14">
-        <v>1.296968817567601</v>
+        <v>1.391632043822133</v>
       </c>
     </row>
     <row r="15">
@@ -844,7 +844,7 @@
         <v>263.8890600924499</v>
       </c>
       <c r="H15">
-        <v>0.9556430315579857</v>
+        <v>0.9969763735310998</v>
       </c>
     </row>
     <row r="16">
@@ -876,7 +876,7 @@
         <v>320.7197802197802</v>
       </c>
       <c r="H16">
-        <v>0.7863055443880697</v>
+        <v>0.8203147244775868</v>
       </c>
     </row>
     <row r="17">
@@ -908,7 +908,7 @@
         <v>165.294964028777</v>
       </c>
       <c r="H17">
-        <v>0.7419735728413409</v>
+        <v>0.753798502680639</v>
       </c>
     </row>
     <row r="18">
@@ -940,7 +940,7 @@
         <v>165.294964028777</v>
       </c>
       <c r="H18">
-        <v>1.525658950733868</v>
+        <v>1.591646543446408</v>
       </c>
     </row>
     <row r="19">
@@ -972,7 +972,7 @@
         <v>165.294964028777</v>
       </c>
       <c r="H19">
-        <v>1.928880063768875</v>
+        <v>2.069665260314198</v>
       </c>
     </row>
     <row r="20">
@@ -1004,7 +1004,7 @@
         <v>162.8823529411765</v>
       </c>
       <c r="H20">
-        <v>0.7529636748150647</v>
+        <v>0.7649637553464128</v>
       </c>
     </row>
     <row r="21">
@@ -1036,7 +1036,7 @@
         <v>162.8823529411765</v>
       </c>
       <c r="H21">
-        <v>1.548256989342549</v>
+        <v>1.615221989336772</v>
       </c>
     </row>
     <row r="22">
@@ -1068,7 +1068,7 @@
         <v>162.8823529411765</v>
       </c>
       <c r="H22">
-        <v>1.957450607750278</v>
+        <v>2.100321112617971</v>
       </c>
     </row>
     <row r="23">
@@ -1100,7 +1100,7 @@
         <v>284.7272727272727</v>
       </c>
       <c r="H23">
-        <v>1.119787920920023</v>
+        <v>1.201519058846645</v>
       </c>
     </row>
     <row r="24">
@@ -1132,7 +1132,7 @@
         <v>197.8496583143508</v>
       </c>
       <c r="H24">
-        <v>1.274623082649238</v>
+        <v>1.329752906257196</v>
       </c>
     </row>
     <row r="25">
@@ -1164,7 +1164,7 @@
         <v>254.6341463414634</v>
       </c>
       <c r="H25">
-        <v>0.4816498368158636</v>
+        <v>0.4893259532382404</v>
       </c>
     </row>
     <row r="26">
@@ -1196,7 +1196,7 @@
         <v>241.1391705069124</v>
       </c>
       <c r="H26">
-        <v>1.04580164579486</v>
+        <v>1.091034515845942</v>
       </c>
     </row>
     <row r="27">
@@ -1228,7 +1228,7 @@
         <v>254.6341463414634</v>
       </c>
       <c r="H27">
-        <v>0.4373825445816187</v>
+        <v>0.4538852514670935</v>
       </c>
     </row>
     <row r="28">
@@ -1260,7 +1260,7 @@
         <v>241.1391705069124</v>
       </c>
       <c r="H28">
-        <v>1.322199790628215</v>
+        <v>1.418704576432297</v>
       </c>
     </row>
     <row r="29">
@@ -1292,7 +1292,7 @@
         <v>149.625</v>
       </c>
       <c r="H29">
-        <v>1.685438538892139</v>
+        <v>1.758336896544703</v>
       </c>
     </row>
     <row r="30">
@@ -1324,7 +1324,7 @@
         <v>260.0275862068966</v>
       </c>
       <c r="H30">
-        <v>0.9698345666335605</v>
+        <v>1.011781718944878</v>
       </c>
     </row>
     <row r="31">
@@ -1484,7 +1484,7 @@
         <v>565.5652173913044</v>
       </c>
       <c r="H35">
-        <v>0.5637442879304679</v>
+        <v>0.604890884791715</v>
       </c>
     </row>
     <row r="36">
@@ -1516,7 +1516,7 @@
         <v>203.8140221402214</v>
       </c>
       <c r="H36">
-        <v>1.237322823687946</v>
+        <v>1.290839341586115</v>
       </c>
     </row>
     <row r="37">
@@ -1548,7 +1548,7 @@
         <v>203.8140221402214</v>
       </c>
       <c r="H37">
-        <v>1.564338691756681</v>
+        <v>1.678516724035213</v>
       </c>
     </row>
     <row r="38">
@@ -1580,7 +1580,7 @@
         <v>418.4810126582278</v>
       </c>
       <c r="H38">
-        <v>0.761884413180992</v>
+        <v>0.8174928716171911</v>
       </c>
     </row>
     <row r="39">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>New Ulm Adolescent/Adult</t>
+          <t>New Ulm Adult</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1602,17 +1602,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="F39">
-        <v>0.1159984429739198</v>
+        <v>0.1711659965537048</v>
       </c>
       <c r="G39">
         <v>201.503355704698</v>
       </c>
       <c r="H39">
-        <v>0.6086474074052016</v>
+        <v>1.305641572198231</v>
       </c>
     </row>
     <row r="40">
@@ -1620,16 +1620,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>New Ulm Adolescent/Adult</t>
+          <t>North Memorial Adult</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>New Ulm Medical Center</t>
+          <t>North Memorial Health Hospital</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="F40">
-        <v>0.1159984429739198</v>
+        <v>0.2107983917288914</v>
       </c>
       <c r="G40">
-        <v>201.503355704698</v>
+        <v>333.1226158038147</v>
       </c>
       <c r="H40">
-        <v>1.251511373097479</v>
+        <v>0.7897727313129739</v>
       </c>
     </row>
     <row r="41">
@@ -1652,16 +1652,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>North Memorial Adult</t>
+          <t>Owatonna Adult</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>North Memorial Health Hospital</t>
+          <t>Owatonna Hospital</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1670,13 +1670,13 @@
         </is>
       </c>
       <c r="F41">
-        <v>0.2107983917288914</v>
+        <v>0.1728891441700172</v>
       </c>
       <c r="G41">
-        <v>333.1226158038147</v>
+        <v>217.6744186046512</v>
       </c>
       <c r="H41">
-        <v>0.7570297824818187</v>
+        <v>1.208645277805187</v>
       </c>
     </row>
     <row r="42">
@@ -1684,31 +1684,31 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Owatonna Adult</t>
+          <t>PrairieCare Pediatric/Adolescent</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Owatonna Hospital</t>
+          <t>PrairieCare</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="F42">
-        <v>0.1728891441700172</v>
+        <v>3.429611650485437</v>
       </c>
       <c r="G42">
-        <v>217.6744186046512</v>
+        <v>184.5859872611465</v>
       </c>
       <c r="H42">
-        <v>1.158536418740883</v>
+        <v>0.6750192592315432</v>
       </c>
     </row>
     <row r="43">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Child</t>
         </is>
       </c>
       <c r="F43">
@@ -1740,7 +1740,7 @@
         <v>184.5859872611465</v>
       </c>
       <c r="H43">
-        <v>0.6644301490751785</v>
+        <v>0.6261292379729364</v>
       </c>
     </row>
     <row r="44">
@@ -1748,31 +1748,31 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PrairieCare Pediatric/Adolescent</t>
+          <t>Regina Geriatric</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PrairieCare</t>
+          <t>Regina Hospital</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Child</t>
+          <t>Geriatric</t>
         </is>
       </c>
       <c r="F44">
-        <v>3.429611650485437</v>
+        <v>0.02067777139574957</v>
       </c>
       <c r="G44">
-        <v>184.5859872611465</v>
+        <v>572</v>
       </c>
       <c r="H44">
-        <v>0.6033639525769156</v>
+        <v>0.5980860922294489</v>
       </c>
     </row>
     <row r="45">
@@ -1780,31 +1780,31 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Regina Geriatric</t>
+          <t>Regions Adult</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Regina Hospital</t>
+          <t>Regions Hospital</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Geriatric</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="F45">
-        <v>0.02067777139574957</v>
+        <v>1.136128661688685</v>
       </c>
       <c r="G45">
-        <v>572</v>
+        <v>267.360970677452</v>
       </c>
       <c r="H45">
-        <v>0.5574023789449322</v>
+        <v>0.9840297836997983</v>
       </c>
     </row>
     <row r="46">
@@ -1812,31 +1812,31 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Regions Adult</t>
+          <t>Ridgeview Geriatric</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Regions Hospital</t>
+          <t>Ridgeview Medical Center</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Geriatric</t>
         </is>
       </c>
       <c r="F46">
-        <v>1.136128661688685</v>
+        <v>0.007466973004020678</v>
       </c>
       <c r="G46">
-        <v>267.360970677452</v>
+        <v>164.3076923076923</v>
       </c>
       <c r="H46">
-        <v>0.9432331904793028</v>
+        <v>2.082101208716377</v>
       </c>
     </row>
     <row r="47">
@@ -1844,31 +1844,31 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ridgeview Geriatric</t>
+          <t>St Jospephs Adult/Geriatric</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ridgeview Medical Center</t>
+          <t>Saint Joseph's Hospital</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Geriatric</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="F47">
-        <v>0.007466973004020678</v>
+        <v>0.7375071797817346</v>
       </c>
       <c r="G47">
-        <v>164.3076923076923</v>
+        <v>262.6542056074766</v>
       </c>
       <c r="H47">
-        <v>1.940470079510541</v>
+        <v>1.001663603813287</v>
       </c>
     </row>
     <row r="48">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Geriatric</t>
         </is>
       </c>
       <c r="F48">
@@ -1900,7 +1900,7 @@
         <v>262.6542056074766</v>
       </c>
       <c r="H48">
-        <v>0.9601359353773764</v>
+        <v>1.302492925875719</v>
       </c>
     </row>
     <row r="49">
@@ -1908,31 +1908,31 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>St Jospephs Adult/Geriatric</t>
+          <t>Sanford Behavioral Adolescent/Adult/Geriatric</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Saint Joseph's Hospital</t>
+          <t>Sanford Behavioral Health Center</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Geriatric</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="F49">
-        <v>0.7375071797817346</v>
+        <v>0.08836123005060335</v>
       </c>
       <c r="G49">
-        <v>262.6542056074766</v>
+        <v>145.057268722467</v>
       </c>
       <c r="H49">
-        <v>1.213893225197325</v>
+        <v>0.8589648590718558</v>
       </c>
     </row>
     <row r="50">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="F50">
@@ -1964,7 +1964,7 @@
         <v>145.057268722467</v>
       </c>
       <c r="H50">
-        <v>0.8454901716629176</v>
+        <v>1.813705445184304</v>
       </c>
     </row>
     <row r="51">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Geriatric</t>
         </is>
       </c>
       <c r="F51">
@@ -1996,7 +1996,7 @@
         <v>145.057268722467</v>
       </c>
       <c r="H51">
-        <v>1.738511579617776</v>
+        <v>2.358415043714789</v>
       </c>
     </row>
     <row r="52">
@@ -2004,31 +2004,31 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sanford Behavioral Adolescent/Adult/Geriatric</t>
+          <t>St. Cloud Adolescent/Adult</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sanford Behavioral Health Center</t>
+          <t>St. Cloud Hospital</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Geriatric</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="F52">
-        <v>0.08836123005060335</v>
+        <v>0.3386531724406384</v>
       </c>
       <c r="G52">
-        <v>145.057268722467</v>
+        <v>180</v>
       </c>
       <c r="H52">
-        <v>2.197988170910039</v>
+        <v>0.692217202141901</v>
       </c>
     </row>
     <row r="53">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="F53">
@@ -2060,7 +2060,7 @@
         <v>180</v>
       </c>
       <c r="H53">
-        <v>0.6813583057395143</v>
+        <v>1.461617545252784</v>
       </c>
     </row>
     <row r="54">
@@ -2068,16 +2068,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>St. Cloud Adolescent/Adult</t>
+          <t>Essentia St. Josephs Adult</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>St. Cloud Hospital</t>
+          <t>St. Joseph's Medical Center</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2086,13 +2086,13 @@
         </is>
       </c>
       <c r="F54">
-        <v>0.3386531724406384</v>
+        <v>0.2056289488799541</v>
       </c>
       <c r="G54">
-        <v>180</v>
+        <v>124.6256983240224</v>
       </c>
       <c r="H54">
-        <v>1.401020785454091</v>
+        <v>2.111050623455474</v>
       </c>
     </row>
     <row r="55">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Essentia St. Josephs Adult</t>
+          <t>St Lukes Adult</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>St. Joseph's Medical Center</t>
+          <t>St. Luke's Hospital</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="F55">
-        <v>0.2056289488799541</v>
+        <v>0.2952326249282022</v>
       </c>
       <c r="G55">
-        <v>124.6256983240224</v>
+        <v>268.0622568093385</v>
       </c>
       <c r="H55">
-        <v>2.023529214063601</v>
+        <v>0.9814554323200634</v>
       </c>
     </row>
     <row r="56">
@@ -2132,31 +2132,31 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>St Lukes Adult</t>
+          <t>United Adolescent</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>St. Luke's Hospital</t>
+          <t>United Hospital</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="F56">
-        <v>0.2952326249282022</v>
+        <v>0.299757281553398</v>
       </c>
       <c r="G56">
-        <v>268.0622568093385</v>
+        <v>258.6558704453441</v>
       </c>
       <c r="H56">
-        <v>0.9407655683549068</v>
+        <v>0.4817176434890577</v>
       </c>
     </row>
     <row r="57">
@@ -2164,11 +2164,11 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>United Adolescent</t>
+          <t>United Adult/Geriatric</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2178,17 +2178,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="F57">
-        <v>0.299757281553398</v>
+        <v>0.3739230327398047</v>
       </c>
       <c r="G57">
-        <v>258.6558704453441</v>
+        <v>240.073732718894</v>
       </c>
       <c r="H57">
-        <v>0.4741608795576447</v>
+        <v>1.095876484136474</v>
       </c>
     </row>
     <row r="58">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Geriatric</t>
         </is>
       </c>
       <c r="F58">
@@ -2220,7 +2220,7 @@
         <v>240.073732718894</v>
       </c>
       <c r="H58">
-        <v>1.050442872386302</v>
+        <v>1.425000731570334</v>
       </c>
     </row>
     <row r="59">
@@ -2228,63 +2228,31 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>United Adult/Geriatric</t>
+          <t>Winnona Adult</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>United Hospital</t>
+          <t>Winona Health Services</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Geriatric</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="F59">
-        <v>0.3739230327398047</v>
+        <v>0.01033888569787478</v>
       </c>
       <c r="G59">
-        <v>240.073732718894</v>
+        <v>169.3333333333333</v>
       </c>
       <c r="H59">
-        <v>1.328067661320653</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>10</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Winnona Adult</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Winona Health Services</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Adult</t>
-        </is>
-      </c>
-      <c r="F60">
-        <v>0.01033888569787478</v>
-      </c>
-      <c r="G60">
-        <v>169.3333333333333</v>
-      </c>
-      <c r="H60">
-        <v>1.48927406327797</v>
+        <v>1.553687941804141</v>
       </c>
     </row>
   </sheetData>
